--- a/Data Table.xlsx
+++ b/Data Table.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Table" sheetId="1" r:id="rId1"/>
     <sheet name="Seller Table" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>First Name</t>
   </si>
@@ -199,6 +200,105 @@
   </si>
   <si>
     <t>randula66@gamil.com</t>
+  </si>
+  <si>
+    <t>3546,Allakattuwa Road, Anuradhapura</t>
+  </si>
+  <si>
+    <t>23, Jaffna juncton, Anuradhapura</t>
+  </si>
+  <si>
+    <t>234,Kandy road, Kurunagala</t>
+  </si>
+  <si>
+    <t>12, Allawal Road, Colombo 12</t>
+  </si>
+  <si>
+    <t>94, Street flat, Colombo 4</t>
+  </si>
+  <si>
+    <t>8, Polywalin flat, Kandy</t>
+  </si>
+  <si>
+    <t>prayhana83@yahoo.com</t>
+  </si>
+  <si>
+    <t>Dealer ID</t>
+  </si>
+  <si>
+    <t>Product Brands</t>
+  </si>
+  <si>
+    <t>washishoe@gmail.com</t>
+  </si>
+  <si>
+    <t>washi shoe, main Street, Kandy</t>
+  </si>
+  <si>
+    <t>Addids,Nike</t>
+  </si>
+  <si>
+    <t>polisshoe@yahoo.com</t>
+  </si>
+  <si>
+    <t>polis complex, Madawachchiya</t>
+  </si>
+  <si>
+    <t>DSI</t>
+  </si>
+  <si>
+    <t>bestfit@shoeonline.lk</t>
+  </si>
+  <si>
+    <t>bestfitshoe shop, Colombo5</t>
+  </si>
+  <si>
+    <t>Addids,Nike,Sketches</t>
+  </si>
+  <si>
+    <t>bestshoe@shoefit.com</t>
+  </si>
+  <si>
+    <t>bestshoe, Kandy</t>
+  </si>
+  <si>
+    <t>Betans</t>
+  </si>
+  <si>
+    <t>esshoes@gmail.com</t>
+  </si>
+  <si>
+    <t>ess  complex, Galle</t>
+  </si>
+  <si>
+    <t>DSI, Bata</t>
+  </si>
+  <si>
+    <t>Courier ID</t>
+  </si>
+  <si>
+    <t>mainbranch@quickcourier.com</t>
+  </si>
+  <si>
+    <t>12, Main branch, Quick courier , Colombo</t>
+  </si>
+  <si>
+    <t>123branch@pronto.lk</t>
+  </si>
+  <si>
+    <t>17, Prtnto service, Kandy</t>
+  </si>
+  <si>
+    <t>quickserviceour@gmail.com</t>
+  </si>
+  <si>
+    <t>856, Egle streat, Vauniya</t>
+  </si>
+  <si>
+    <t>galleexpress@curier.lk</t>
+  </si>
+  <si>
+    <t>galleexpress, Main street, Galle</t>
   </si>
 </sst>
 </file>
@@ -532,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,6 +765,9 @@
       <c r="C7">
         <v>714857392</v>
       </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
@@ -679,6 +782,9 @@
       <c r="C8">
         <v>772671943</v>
       </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
@@ -693,6 +799,9 @@
       <c r="C9">
         <v>745209725</v>
       </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
@@ -707,6 +816,9 @@
       <c r="C10">
         <v>746108458</v>
       </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
@@ -721,6 +833,9 @@
       <c r="C11">
         <v>116739201</v>
       </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
@@ -734,6 +849,12 @@
       </c>
       <c r="C12">
         <v>257367283</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -991,12 +1112,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>500001</v>
+      </c>
+      <c r="B2">
+        <v>735636743</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>500002</v>
+      </c>
+      <c r="B3">
+        <v>747359677</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>500003</v>
+      </c>
+      <c r="B4">
+        <v>246994419</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>500004</v>
+      </c>
+      <c r="B5">
+        <v>119252870</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500005</v>
+      </c>
+      <c r="B6">
+        <v>223456432</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>500006</v>
+      </c>
+      <c r="B7">
+        <v>345677652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>500007</v>
+      </c>
+      <c r="B8">
+        <v>345865321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>500008</v>
+      </c>
+      <c r="B9">
+        <v>213443710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>500009</v>
+      </c>
+      <c r="B10">
+        <v>714857392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>500010</v>
+      </c>
+      <c r="B11">
+        <v>772671943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>500011</v>
+      </c>
+      <c r="B12">
+        <v>745209725</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>800001</v>
+      </c>
+      <c r="B2">
+        <v>743876482</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>800002</v>
+      </c>
+      <c r="B3">
+        <v>745268321</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>800003</v>
+      </c>
+      <c r="B4">
+        <v>246359823</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>800004</v>
+      </c>
+      <c r="B5">
+        <v>764258546</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>800005</v>
+      </c>
+      <c r="B6">
+        <v>252224865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>800006</v>
+      </c>
+      <c r="B7">
+        <v>237584132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>800007</v>
+      </c>
+      <c r="B8">
+        <v>117532987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>800008</v>
+      </c>
+      <c r="B9">
+        <v>126512345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>800009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>800010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>800011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>800012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>800013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>800014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>800015</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>